--- a/Files/Vaccine_April 29, 2013.xlsx
+++ b/Files/Vaccine_April 29, 2013.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="341">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">$21.44</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Kinrix</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">$70.72</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">$80.43</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">$27.44</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Hib [3]</t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">Comvax</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">200-2013-54509</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">58160-0825-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -254,8 +254,7 @@
     <t xml:space="preserve">58160-0815-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -273,8 +272,7 @@
     <t xml:space="preserve">58160-0820-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -295,7 +293,7 @@
     <t xml:space="preserve">$23.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -322,7 +320,7 @@
     <t xml:space="preserve">$26.21</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant [5]</t>
+    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil</t>
@@ -337,7 +335,7 @@
     <t xml:space="preserve">$135.453</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">Cervarix</t>
@@ -355,7 +353,7 @@
     <t xml:space="preserve">$128.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -388,7 +386,7 @@
     <t xml:space="preserve">200-2013-54511</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -403,7 +401,7 @@
     <t xml:space="preserve">$54.066</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -418,8 +416,7 @@
     <t xml:space="preserve">$144.615</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13 TM</t>
@@ -458,7 +455,7 @@
     <t xml:space="preserve">$64.422</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -485,7 +482,7 @@
     <t xml:space="preserve">$63.96</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -500,7 +497,7 @@
     <t xml:space="preserve">$106.57</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac Effective Feb 1, 2013</t>
@@ -509,8 +506,7 @@
     <t xml:space="preserve">49281-0215-15</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes
-No Needle</t>
+    <t xml:space="preserve">10 pack - 1 dose syringes No Needle</t>
   </si>
   <si>
     <t xml:space="preserve">$17.57</t>
@@ -522,7 +518,7 @@
     <t xml:space="preserve">49281-0215-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -552,7 +548,7 @@
     <t xml:space="preserve">5 pack - 1 dose BD Leur-Lok syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -567,7 +563,7 @@
     <t xml:space="preserve">$90.549</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0826-11</t>
@@ -588,7 +584,7 @@
     <t xml:space="preserve">$63.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-09</t>
@@ -615,13 +611,13 @@
     <t xml:space="preserve">$61.988</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$45.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX-B</t>
@@ -642,9 +638,6 @@
     <t xml:space="preserve">$26.19</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax HB</t>
-  </si>
-  <si>
     <t xml:space="preserve">00006-4995-41</t>
   </si>
   <si>
@@ -675,13 +668,13 @@
     <t xml:space="preserve">$61.22</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult [5]</t>
+    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$90.402</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose T-L syringe, No Needle</t>
@@ -690,7 +683,7 @@
     <t xml:space="preserve">$77.60</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$37.171</t>
@@ -738,7 +731,7 @@
     <t xml:space="preserve">$24.012</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella-Adult [5]</t>
+    <t xml:space="preserve">Varicella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$60.883</t>
@@ -765,9 +758,6 @@
     <t xml:space="preserve">00006-4133-41</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">$13.108</t>
   </si>
   <si>
@@ -786,7 +776,7 @@
     <t xml:space="preserve">$13.317</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate </t>
   </si>
   <si>
     <t xml:space="preserve">$68.022</t>
@@ -798,8 +788,7 @@
     <t xml:space="preserve">$72.494</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -817,13 +806,10 @@
     <t xml:space="preserve">200-2013-54015</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0113-25</t>
@@ -832,12 +818,10 @@
     <t xml:space="preserve">$12.227</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-No-Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone No-Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0013-50</t>
@@ -858,15 +842,13 @@
     <t xml:space="preserve">$13.075</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Preservative Free</t>
+    <t xml:space="preserve">Fluarix Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0880-52</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack- 1 dose
-TipLok syringe</t>
+    <t xml:space="preserve">10 pack- 1 dose TipLok syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$9.25</t>
@@ -878,8 +860,7 @@
     <t xml:space="preserve">200-2013-54020</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix Quadrivalent
-Preservative Free</t>
+    <t xml:space="preserve">Fluarix Quadrivalent Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0900-52</t>
@@ -891,8 +872,7 @@
     <t xml:space="preserve">15.90</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -910,8 +890,7 @@
     <t xml:space="preserve">200-2013-54019</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluvirin
-Preservative Free</t>
+    <t xml:space="preserve">Fluvirin Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">66521-0116-02</t>
@@ -926,12 +905,10 @@
     <t xml:space="preserve">$14.35</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-No Preservative Quadrivalent</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist No Preservative Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0300-10</t>
@@ -952,32 +929,24 @@
     <t xml:space="preserve">200-2013-54017</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 9 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 9 years and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0013-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack-1 dose
-syringe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merck
-(CSL product)</t>
+    <t xml:space="preserve">10 pack-1 dose syringe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merck (CSL product)</t>
   </si>
   <si>
     <t xml:space="preserve">200-2013-54016</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 9 years and older)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Afluria</t>
   </si>
   <si>
@@ -999,8 +968,7 @@
     <t xml:space="preserve">200-2013-54009</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 18 - 64 years)</t>
+    <t xml:space="preserve">Influenza  (Age 18 - 64 years)</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0707-55</t>
@@ -1012,8 +980,7 @@
     <t xml:space="preserve">$16.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-No Preservative</t>
+    <t xml:space="preserve">Fluzone No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$9.494</t>
@@ -1022,8 +989,7 @@
     <t xml:space="preserve">$9.93</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 18 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 18 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Flucelvax Preservative Free Antibiotic free</t>
@@ -1044,15 +1010,7 @@
     <t xml:space="preserve">$6.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
-  </si>
-  <si>
     <t xml:space="preserve">$7.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 18 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">FluLaval</t>
@@ -2625,19 +2583,19 @@
         <v>200</v>
       </c>
       <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
         <v>207</v>
-      </c>
-      <c r="C10" t="s">
-        <v>208</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" t="s">
         <v>209</v>
-      </c>
-      <c r="F10" t="s">
-        <v>210</v>
       </c>
       <c r="G10" s="1">
         <v>41455</v>
@@ -2654,19 +2612,19 @@
         <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" t="s">
         <v>211</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>212</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>213</v>
-      </c>
-      <c r="F11" t="s">
-        <v>214</v>
       </c>
       <c r="G11" s="1">
         <v>41455</v>
@@ -2683,19 +2641,19 @@
         <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" t="s">
         <v>215</v>
-      </c>
-      <c r="D12" t="s">
-        <v>216</v>
       </c>
       <c r="E12" t="s">
         <v>206</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G12" s="1">
         <v>41455</v>
@@ -2709,7 +2667,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
@@ -2721,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
         <v>105</v>
@@ -2738,7 +2696,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
         <v>107</v>
@@ -2747,10 +2705,10 @@
         <v>108</v>
       </c>
       <c r="D14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" t="s">
         <v>221</v>
-      </c>
-      <c r="E14" t="s">
-        <v>222</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -2767,7 +2725,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
         <v>124</v>
@@ -2779,7 +2737,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F15" t="s">
         <v>127</v>
@@ -2802,16 +2760,16 @@
         <v>142</v>
       </c>
       <c r="C16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" t="s">
         <v>225</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>226</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>227</v>
-      </c>
-      <c r="F16" t="s">
-        <v>228</v>
       </c>
       <c r="G16" s="1">
         <v>41455</v>
@@ -2834,10 +2792,10 @@
         <v>143</v>
       </c>
       <c r="D17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" t="s">
         <v>229</v>
-      </c>
-      <c r="E17" t="s">
-        <v>230</v>
       </c>
       <c r="F17" t="s">
         <v>145</v>
@@ -2866,7 +2824,7 @@
         <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F18" t="s">
         <v>171</v>
@@ -2889,13 +2847,13 @@
         <v>168</v>
       </c>
       <c r="C19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" t="s">
         <v>232</v>
       </c>
-      <c r="D19" t="s">
-        <v>233</v>
-      </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F19" t="s">
         <v>171</v>
@@ -2924,7 +2882,7 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s">
         <v>174</v>
@@ -2933,10 +2891,10 @@
         <v>41455</v>
       </c>
       <c r="H20" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" t="s">
         <v>235</v>
-      </c>
-      <c r="I20" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="21">
@@ -2950,10 +2908,10 @@
         <v>175</v>
       </c>
       <c r="D21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" t="s">
         <v>237</v>
-      </c>
-      <c r="E21" t="s">
-        <v>238</v>
       </c>
       <c r="F21" t="s">
         <v>174</v>
@@ -2962,15 +2920,15 @@
         <v>41455</v>
       </c>
       <c r="H21" t="s">
+        <v>234</v>
+      </c>
+      <c r="I21" t="s">
         <v>235</v>
-      </c>
-      <c r="I21" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
         <v>178</v>
@@ -2982,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F22" t="s">
         <v>181</v>
@@ -2999,22 +2957,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" t="s">
         <v>241</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>242</v>
-      </c>
-      <c r="C23" t="s">
-        <v>243</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
       </c>
       <c r="E23" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" t="s">
         <v>244</v>
-      </c>
-      <c r="F23" t="s">
-        <v>245</v>
       </c>
       <c r="G23" s="1">
         <v>41455</v>
@@ -3028,22 +2986,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" t="s">
         <v>246</v>
-      </c>
-      <c r="B24" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" t="s">
-        <v>248</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G24" s="1">
         <v>41455</v>
@@ -3057,10 +3012,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
         <v>166</v>
@@ -3069,7 +3024,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F25" t="s">
         <v>165</v>
@@ -3078,27 +3033,27 @@
         <v>41455</v>
       </c>
       <c r="H25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" t="s">
         <v>235</v>
-      </c>
-      <c r="I25" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
         <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F26" t="s">
         <v>165</v>
@@ -3107,15 +3062,15 @@
         <v>41455</v>
       </c>
       <c r="H26" t="s">
+        <v>234</v>
+      </c>
+      <c r="I26" t="s">
         <v>235</v>
-      </c>
-      <c r="I26" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s">
         <v>118</v>
@@ -3127,7 +3082,7 @@
         <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F27" t="s">
         <v>120</v>
@@ -3139,12 +3094,12 @@
         <v>121</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
         <v>113</v>
@@ -3156,7 +3111,7 @@
         <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F28" t="s">
         <v>117</v>
@@ -3165,10 +3120,10 @@
         <v>41455</v>
       </c>
       <c r="H28" t="s">
+        <v>234</v>
+      </c>
+      <c r="I28" t="s">
         <v>235</v>
-      </c>
-      <c r="I28" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3218,22 +3173,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
         <v>259</v>
-      </c>
-      <c r="B2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" t="s">
-        <v>261</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G2" s="1">
         <v>41691</v>
@@ -3242,24 +3197,24 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
         <v>265</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" t="s">
         <v>266</v>
-      </c>
-      <c r="C3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" t="s">
-        <v>268</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -3271,27 +3226,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>269</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" t="s">
         <v>270</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>271</v>
-      </c>
-      <c r="D4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" t="s">
-        <v>273</v>
       </c>
       <c r="G4" s="1">
         <v>41691</v>
@@ -3300,27 +3255,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G5" s="1">
         <v>41691</v>
@@ -3329,27 +3284,27 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s">
         <v>277</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>278</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>279</v>
-      </c>
-      <c r="E6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" t="s">
-        <v>281</v>
       </c>
       <c r="G6" s="1">
         <v>41691</v>
@@ -3358,27 +3313,27 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>284</v>
-      </c>
-      <c r="D7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" t="s">
-        <v>286</v>
       </c>
       <c r="G7" s="1">
         <v>41691</v>
@@ -3387,27 +3342,27 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
         <v>287</v>
-      </c>
-      <c r="B8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" t="s">
-        <v>289</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G8" s="1">
         <v>41691</v>
@@ -3416,27 +3371,27 @@
         <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" t="s">
         <v>293</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>294</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>295</v>
-      </c>
-      <c r="E9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F9" t="s">
-        <v>297</v>
       </c>
       <c r="G9" s="1">
         <v>41691</v>
@@ -3445,53 +3400,53 @@
         <v>121</v>
       </c>
       <c r="I9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" t="s">
         <v>298</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>299</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>300</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>301</v>
-      </c>
-      <c r="E10" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" t="s">
-        <v>303</v>
       </c>
       <c r="G10" s="1">
         <v>41691</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" t="s">
         <v>306</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>307</v>
       </c>
-      <c r="C11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D11" t="s">
-        <v>309</v>
-      </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
         <v>87</v>
@@ -3500,39 +3455,39 @@
         <v>41691</v>
       </c>
       <c r="H11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" t="s">
         <v>312</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>313</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>314</v>
-      </c>
-      <c r="D12" t="s">
-        <v>315</v>
-      </c>
-      <c r="E12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F12" t="s">
-        <v>317</v>
       </c>
       <c r="G12" s="1">
         <v>41691</v>
       </c>
       <c r="H12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3582,22 +3537,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
         <v>259</v>
-      </c>
-      <c r="B2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" t="s">
-        <v>261</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G2" s="1">
         <v>41691</v>
@@ -3606,27 +3561,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" t="s">
         <v>320</v>
-      </c>
-      <c r="B3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" t="s">
-        <v>323</v>
       </c>
       <c r="G3" s="1">
         <v>41691</v>
@@ -3635,27 +3590,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" t="s">
         <v>269</v>
       </c>
-      <c r="B4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" t="s">
         <v>271</v>
-      </c>
-      <c r="D4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" t="s">
-        <v>273</v>
       </c>
       <c r="G4" s="1">
         <v>41691</v>
@@ -3664,27 +3619,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G5" s="1">
         <v>41691</v>
@@ -3693,27 +3648,27 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" t="s">
         <v>327</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>328</v>
-      </c>
-      <c r="C6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" t="s">
-        <v>330</v>
-      </c>
-      <c r="F6" t="s">
-        <v>331</v>
       </c>
       <c r="G6" s="1">
         <v>41691</v>
@@ -3722,27 +3677,27 @@
         <v>121</v>
       </c>
       <c r="I6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" t="s">
         <v>287</v>
-      </c>
-      <c r="B7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" t="s">
-        <v>289</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G7" s="1">
         <v>41691</v>
@@ -3751,27 +3706,27 @@
         <v>121</v>
       </c>
       <c r="I7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" t="s">
         <v>293</v>
       </c>
-      <c r="C8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F8" t="s">
         <v>295</v>
-      </c>
-      <c r="E8" t="s">
-        <v>335</v>
-      </c>
-      <c r="F8" t="s">
-        <v>297</v>
       </c>
       <c r="G8" s="1">
         <v>41691</v>
@@ -3780,27 +3735,27 @@
         <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G9" s="1">
         <v>41691</v>
@@ -3809,27 +3764,27 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G10" s="1">
         <v>41691</v>
@@ -3838,27 +3793,27 @@
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" t="s">
         <v>284</v>
-      </c>
-      <c r="D11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F11" t="s">
-        <v>286</v>
       </c>
       <c r="G11" s="1">
         <v>41691</v>
@@ -3867,24 +3822,24 @@
         <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" t="s">
         <v>306</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>307</v>
       </c>
-      <c r="C12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D12" t="s">
-        <v>309</v>
-      </c>
       <c r="E12" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -3893,39 +3848,39 @@
         <v>41691</v>
       </c>
       <c r="H12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" t="s">
         <v>312</v>
       </c>
-      <c r="B13" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" t="s">
         <v>314</v>
-      </c>
-      <c r="D13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F13" t="s">
-        <v>317</v>
       </c>
       <c r="G13" s="1">
         <v>41691</v>
       </c>
       <c r="H13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I13" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
